--- a/biology/Médecine/Hôpital_Pasteur-Saint-Augustin/Hôpital_Pasteur-Saint-Augustin.xlsx
+++ b/biology/Médecine/Hôpital_Pasteur-Saint-Augustin/Hôpital_Pasteur-Saint-Augustin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Pasteur-Saint-Augustin</t>
+          <t>Hôpital_Pasteur-Saint-Augustin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Pasteur-Saint-Augustin est un édifice situé dans la ville d'Auch, dans l'Occitanie dans le Gers.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Pasteur-Saint-Augustin</t>
+          <t>Hôpital_Pasteur-Saint-Augustin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les façades et les toitures de l'ancien hôpital avec sa chapelle, en totalité, et son portail d'entrée sont inscrits au titre des monuments historiques par arrêté du 27 octobre 2004[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les façades et les toitures de l'ancien hôpital avec sa chapelle, en totalité, et son portail d'entrée sont inscrits au titre des monuments historiques par arrêté du 27 octobre 2004.
 Les travaux de l'établissement ont commencé en 1713 par l'architecte Gabriel Arché suivant les plans de M. de Basville. 
-L’hôpital Saint-Sébastien est bâti en 1743 dans le prolongement de celui-ci, qui sera finalement ruiné en 1789. Les biens sont rétablis à l’hôpital en 1809. L’architecte Francou érige l'aile est et remanie la chapelle de 1922 à 1929[1]. 
+L’hôpital Saint-Sébastien est bâti en 1743 dans le prolongement de celui-ci, qui sera finalement ruiné en 1789. Les biens sont rétablis à l’hôpital en 1809. L’architecte Francou érige l'aile est et remanie la chapelle de 1922 à 1929. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Pasteur-Saint-Augustin</t>
+          <t>Hôpital_Pasteur-Saint-Augustin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un tableau de Gabriel Lettu, Portrait d'un bourgeois daté de 1828, un tableau de Smets Jacob, Saint Vincent de Paul ayant subi un agrandissement afin de s'adapter au cadre doré, datant de 1743 et situé dans l'ancienne chapelle ainsi que le tableau et son cadre : Portrait de Monseigneur de Maupéou sont inscrits au titre des objets[2],[3],[4].
-L'autel, le tabernacle et le retable de la chapelle ont été probablement conçus par les frères Mazzetti au milieu du XVIIIe siècle[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un tableau de Gabriel Lettu, Portrait d'un bourgeois daté de 1828, un tableau de Smets Jacob, Saint Vincent de Paul ayant subi un agrandissement afin de s'adapter au cadre doré, datant de 1743 et situé dans l'ancienne chapelle ainsi que le tableau et son cadre : Portrait de Monseigneur de Maupéou sont inscrits au titre des objets.
+L'autel, le tabernacle et le retable de la chapelle ont été probablement conçus par les frères Mazzetti au milieu du XVIIIe siècle.
 </t>
         </is>
       </c>
